--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc106_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc106_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3376" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -708,10 +720,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -755,28 +767,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="2">
+      <c r="C22" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -801,28 +813,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -881,10 +893,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -928,28 +940,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -974,28 +986,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1112,10 +1124,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1159,28 +1171,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1205,28 +1217,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1314,10 +1326,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1361,28 +1373,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="2">
+      <c r="C43" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1407,28 +1419,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1545,10 +1557,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1592,28 +1604,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="2">
+      <c r="C51" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1638,28 +1650,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1718,10 +1730,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1765,28 +1777,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="2">
+      <c r="C57" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1811,28 +1823,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1891,10 +1903,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1938,28 +1950,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1984,28 +1996,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2064,10 +2076,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2111,28 +2123,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2157,28 +2169,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2353,10 +2365,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2400,28 +2412,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2446,28 +2458,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2526,10 +2538,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="2" t="s">
+      <c r="J83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2573,28 +2585,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="2">
+      <c r="A85" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="2">
+      <c r="C85" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2619,28 +2631,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="2">
+      <c r="I87" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2786,10 +2798,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2833,28 +2845,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2879,28 +2891,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2988,10 +3000,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3035,28 +3047,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3081,28 +3093,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3161,10 +3173,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3208,28 +3220,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3254,28 +3266,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3363,10 +3375,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3410,28 +3422,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3456,28 +3468,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3536,10 +3548,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3583,28 +3595,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="2">
+      <c r="C120" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3629,28 +3641,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3738,10 +3750,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3785,28 +3797,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3831,28 +3843,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3969,10 +3981,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4016,28 +4028,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4062,28 +4074,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4142,10 +4154,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4189,28 +4201,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4235,28 +4247,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4344,10 +4356,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4391,28 +4403,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4437,28 +4449,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4575,10 +4587,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4622,28 +4634,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4668,28 +4680,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4777,10 +4789,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="2" t="s">
+      <c r="J161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4824,28 +4836,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="2">
+      <c r="C163" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4870,28 +4882,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4950,10 +4962,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="2" t="s">
+      <c r="J167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -4997,28 +5009,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="2">
+      <c r="C169" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5043,28 +5055,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5123,10 +5135,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5170,28 +5182,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5216,28 +5228,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5325,10 +5337,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5372,28 +5384,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5418,28 +5430,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5498,10 +5510,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5545,28 +5557,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5591,28 +5603,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5671,10 +5683,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5718,28 +5730,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5764,28 +5776,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5873,10 +5885,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5920,28 +5932,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5966,28 +5978,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6075,10 +6087,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6122,28 +6134,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6168,28 +6180,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6306,10 +6318,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6353,28 +6365,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6399,28 +6411,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6508,10 +6520,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6555,28 +6567,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="2">
+      <c r="A223" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="2">
+      <c r="C223" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6601,28 +6613,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="2">
+      <c r="C225" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="2">
+      <c r="D225" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="2">
+      <c r="I225" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6710,10 +6722,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="2" t="s">
+      <c r="J228" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6757,28 +6769,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="2">
+      <c r="A230" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="2">
+      <c r="C230" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6803,28 +6815,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="2">
+      <c r="C232" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="2">
+      <c r="D232" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="2">
+      <c r="I232" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6883,10 +6895,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6930,28 +6942,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6976,28 +6988,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7143,10 +7155,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="2" t="s">
+      <c r="J243" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7190,28 +7202,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="2">
+      <c r="A245" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="2">
+      <c r="C245" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7236,28 +7248,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="2">
+      <c r="C247" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="2">
+      <c r="D247" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="2">
+      <c r="I247" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7374,10 +7386,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7421,28 +7433,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="2">
+      <c r="A253" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="2">
+      <c r="C253" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7467,28 +7479,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="2">
+      <c r="C255" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="2">
+      <c r="D255" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="2">
+      <c r="I255" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7547,10 +7559,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="2" t="s">
+      <c r="J257" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7594,28 +7606,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="2">
+      <c r="A259" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="2">
+      <c r="C259" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7640,28 +7652,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="2">
+      <c r="C261" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="2">
+      <c r="D261" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="2">
+      <c r="I261" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7749,10 +7761,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7796,28 +7808,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7842,28 +7854,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8038,10 +8050,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="2" t="s">
+      <c r="J274" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8085,28 +8097,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="2">
+      <c r="A276" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="2">
+      <c r="C276" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8131,28 +8143,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="2">
+      <c r="C278" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="2">
+      <c r="D278" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="2">
+      <c r="I278" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8240,10 +8252,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="2" t="s">
+      <c r="J281" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8287,28 +8299,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="2">
+      <c r="A283" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="2">
+      <c r="C283" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8333,28 +8345,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="2">
+      <c r="C285" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="2">
+      <c r="D285" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="2">
+      <c r="I285" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8442,10 +8454,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="2" t="s">
+      <c r="J288" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8489,28 +8501,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="2">
+      <c r="A290" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="2">
+      <c r="C290" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8535,28 +8547,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="2">
+      <c r="C292" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="2">
+      <c r="D292" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="2">
+      <c r="I292" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8673,10 +8685,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="2" t="s">
+      <c r="J296" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8720,28 +8732,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="2">
+      <c r="A298" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="2">
+      <c r="C298" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8766,28 +8778,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="2">
+      <c r="C300" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="2">
+      <c r="D300" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="2">
+      <c r="I300" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8875,10 +8887,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="2" t="s">
+      <c r="J303" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8922,28 +8934,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="2">
+      <c r="A305" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="2">
+      <c r="C305" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8968,28 +8980,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="2">
+      <c r="C307" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="2">
+      <c r="D307" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="2">
+      <c r="I307" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9077,10 +9089,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="2" t="s">
+      <c r="J310" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9124,28 +9136,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="2">
+      <c r="A312" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="2">
+      <c r="C312" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9170,28 +9182,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="2">
+      <c r="C314" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="2">
+      <c r="D314" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="2">
+      <c r="I314" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9308,10 +9320,10 @@
       <c r="I318">
         <f>((C318-C317)^2+(D318- D317)^2)^.5</f>
       </c>
-      <c r="J318" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K318" s="2" t="s">
+      <c r="J318" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K318" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L318" t="n">
@@ -9355,28 +9367,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="s" s="2">
+      <c r="A320" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C320" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D320" t="s" s="2">
+      <c r="C320" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D320" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9401,28 +9413,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C322" t="s" s="2">
+      <c r="C322" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D322" t="s" s="2">
+      <c r="D322" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I322" t="s" s="2">
+      <c r="I322" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9510,10 +9522,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="2" t="s">
+      <c r="J325" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9557,28 +9569,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="2">
+      <c r="A327" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="2">
+      <c r="C327" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9603,28 +9615,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="2">
+      <c r="C329" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="2">
+      <c r="D329" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="2">
+      <c r="I329" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9683,10 +9695,10 @@
       <c r="I331">
         <f>((C331-C330)^2+(D331- D330)^2)^.5</f>
       </c>
-      <c r="J331" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K331" s="2" t="s">
+      <c r="J331" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K331" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L331" t="n">
